--- a/data/Lakes/LakePauriComposite_10fe96c510.xlsx
+++ b/data/Lakes/LakePauriComposite_10fe96c510.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -525,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -657,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -866,7 +866,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -955,7 +955,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -6923,7 +6923,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7260,7 +7260,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -7679,7 +7679,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -7934,7 +7934,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -8600,7 +8600,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9202,7 +9202,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -9907,7 +9907,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -10326,7 +10326,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -10445,7 +10445,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -10482,7 +10482,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -10663,7 +10663,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -11078,7 +11078,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -11156,7 +11156,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -11337,7 +11337,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -11561,7 +11561,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -11674,7 +11674,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -11898,7 +11898,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -11929,7 +11929,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -12235,7 +12235,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -12432,7 +12432,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C340" s="2" t="n">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -12695,7 +12695,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C348" s="2" t="n">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -12979,7 +12979,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -13020,7 +13020,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C362" s="2" t="n">
@@ -13285,7 +13285,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -13441,7 +13441,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -13482,7 +13482,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -13519,7 +13519,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -13784,7 +13784,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -13862,7 +13862,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C378" s="2" t="n">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -14008,7 +14008,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -14127,7 +14127,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -14314,7 +14314,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -14470,7 +14470,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -14511,7 +14511,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -14548,7 +14548,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -14616,7 +14616,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C401" s="2" t="n">
@@ -14813,7 +14813,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -14854,7 +14854,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -14959,7 +14959,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C409" s="2" t="n">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -15111,7 +15111,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -15150,7 +15150,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -15189,7 +15189,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -15224,7 +15224,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -15290,7 +15290,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -15331,7 +15331,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C417" s="2" t="n">
@@ -15372,7 +15372,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -15528,7 +15528,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C425" s="2" t="n">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -15756,7 +15756,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -15797,7 +15797,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -15834,7 +15834,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -15943,7 +15943,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C433" s="2" t="n">
@@ -15980,7 +15980,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -16140,7 +16140,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -16245,7 +16245,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C441" s="2" t="n">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -16475,7 +16475,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -16510,7 +16510,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -16576,7 +16576,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -16650,7 +16650,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -16689,7 +16689,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -16728,7 +16728,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -16767,7 +16767,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -16806,7 +16806,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C457" s="2" t="n">
@@ -16907,7 +16907,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -16946,7 +16946,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -16985,7 +16985,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -17063,7 +17063,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C465" s="2" t="n">

--- a/data/Lakes/LakePauriComposite_10fe96c510.xlsx
+++ b/data/Lakes/LakePauriComposite_10fe96c510.xlsx
@@ -67,7 +67,7 @@
     <t>Visual Clarity</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.0000</t>
